--- a/Format/Amateur/General/Caldwell.xlsx
+++ b/Format/Amateur/General/Caldwell.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Astro\data\DeepSkyCatalogs\Format\Amateur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Astro\data\DeepSkyCatalogs\Format\Amateur\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="科德维尔" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科德维尔!$E$1:$E$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科德维尔!$A$1:$K$111</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="882">
   <si>
     <t>Caldwell</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2367,6 +2367,344 @@
   </si>
   <si>
     <t>! planetary, pB, S, lE, 13s d, 3 S st nr</t>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>C58</t>
+  </si>
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>C66</t>
+  </si>
+  <si>
+    <t>C67</t>
+  </si>
+  <si>
+    <t>C68</t>
+  </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>C70</t>
+  </si>
+  <si>
+    <t>C71</t>
+  </si>
+  <si>
+    <t>C72</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>C74</t>
+  </si>
+  <si>
+    <t>C75</t>
+  </si>
+  <si>
+    <t>C76</t>
+  </si>
+  <si>
+    <t>C77</t>
+  </si>
+  <si>
+    <t>C78</t>
+  </si>
+  <si>
+    <t>C79</t>
+  </si>
+  <si>
+    <t>C80</t>
+  </si>
+  <si>
+    <t>C81</t>
+  </si>
+  <si>
+    <t>C82</t>
+  </si>
+  <si>
+    <t>C83</t>
+  </si>
+  <si>
+    <t>C84</t>
+  </si>
+  <si>
+    <t>C85</t>
+  </si>
+  <si>
+    <t>C86</t>
+  </si>
+  <si>
+    <t>C87</t>
+  </si>
+  <si>
+    <t>C88</t>
+  </si>
+  <si>
+    <t>C89</t>
+  </si>
+  <si>
+    <t>C90</t>
+  </si>
+  <si>
+    <t>C91</t>
+  </si>
+  <si>
+    <t>C92</t>
+  </si>
+  <si>
+    <t>C93</t>
+  </si>
+  <si>
+    <t>C94</t>
+  </si>
+  <si>
+    <t>C95</t>
+  </si>
+  <si>
+    <t>C96</t>
+  </si>
+  <si>
+    <t>C97</t>
+  </si>
+  <si>
+    <t>C98</t>
+  </si>
+  <si>
+    <t>C99</t>
+  </si>
+  <si>
+    <t>C100</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>C15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sh2-155</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mel25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2405,12 +2743,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2434,7 +2778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2454,6 +2798,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2736,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2815,8 +3160,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -2856,8 +3201,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>772</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -2900,8 +3245,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>773</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -2959,8 +3304,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>774</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -3003,8 +3348,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>775</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -3059,8 +3404,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="7" t="s">
+        <v>776</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -3103,8 +3448,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>777</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -3159,8 +3504,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>778</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -3200,8 +3545,11 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B10" t="s">
+        <v>880</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -3217,8 +3565,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>780</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -3258,8 +3606,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>781</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -3302,8 +3650,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>782</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
@@ -3358,8 +3706,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="7" t="s">
+        <v>783</v>
       </c>
       <c r="B14" t="s">
         <v>106</v>
@@ -3399,8 +3747,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="7" t="s">
+        <v>784</v>
       </c>
       <c r="B15" t="s">
         <v>113</v>
@@ -3440,8 +3788,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" s="7" t="s">
+        <v>784</v>
       </c>
       <c r="B16" t="s">
         <v>121</v>
@@ -3481,8 +3829,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>879</v>
       </c>
       <c r="B17" t="s">
         <v>126</v>
@@ -3525,8 +3873,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>785</v>
       </c>
       <c r="B18" t="s">
         <v>132</v>
@@ -3566,8 +3914,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>786</v>
       </c>
       <c r="B19" t="s">
         <v>140</v>
@@ -3622,8 +3970,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>787</v>
       </c>
       <c r="B20" t="s">
         <v>146</v>
@@ -3678,8 +4026,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>788</v>
       </c>
       <c r="B21" t="s">
         <v>152</v>
@@ -3719,8 +4067,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
+      <c r="A22" s="7" t="s">
+        <v>789</v>
       </c>
       <c r="B22" t="s">
         <v>158</v>
@@ -3766,8 +4114,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>790</v>
       </c>
       <c r="B23" t="s">
         <v>164</v>
@@ -3822,8 +4170,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
+      <c r="A24" s="7" t="s">
+        <v>791</v>
       </c>
       <c r="B24" t="s">
         <v>172</v>
@@ -3866,8 +4214,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>792</v>
       </c>
       <c r="B25" t="s">
         <v>180</v>
@@ -3922,8 +4270,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>793</v>
       </c>
       <c r="B26" t="s">
         <v>186</v>
@@ -3978,8 +4326,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>794</v>
       </c>
       <c r="B27" t="s">
         <v>193</v>
@@ -4019,8 +4367,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>795</v>
       </c>
       <c r="B28" t="s">
         <v>203</v>
@@ -4075,8 +4423,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>796</v>
       </c>
       <c r="B29" t="s">
         <v>208</v>
@@ -4119,8 +4467,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>797</v>
       </c>
       <c r="B30" t="s">
         <v>214</v>
@@ -4160,8 +4508,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>798</v>
       </c>
       <c r="B31" t="s">
         <v>220</v>
@@ -4216,8 +4564,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>799</v>
       </c>
       <c r="B32" t="s">
         <v>226</v>
@@ -4272,8 +4620,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>800</v>
       </c>
       <c r="B33" t="s">
         <v>235</v>
@@ -4316,8 +4664,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>801</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
@@ -4372,8 +4720,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
+      <c r="A35" s="7" t="s">
+        <v>802</v>
       </c>
       <c r="B35" t="s">
         <v>250</v>
@@ -4416,8 +4764,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>34</v>
+      <c r="A36" s="7" t="s">
+        <v>803</v>
       </c>
       <c r="B36" t="s">
         <v>257</v>
@@ -4460,8 +4808,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>804</v>
       </c>
       <c r="B37" t="s">
         <v>263</v>
@@ -4516,8 +4864,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>805</v>
       </c>
       <c r="B38" t="s">
         <v>271</v>
@@ -4572,8 +4920,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>806</v>
       </c>
       <c r="B39" t="s">
         <v>277</v>
@@ -4613,8 +4961,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>38</v>
+      <c r="A40" s="7" t="s">
+        <v>807</v>
       </c>
       <c r="B40" t="s">
         <v>286</v>
@@ -4669,8 +5017,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>39</v>
+      <c r="A41" s="7" t="s">
+        <v>808</v>
       </c>
       <c r="B41" t="s">
         <v>291</v>
@@ -4713,8 +5061,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>40</v>
+      <c r="A42" t="s">
+        <v>809</v>
       </c>
       <c r="B42" t="s">
         <v>299</v>
@@ -4769,8 +5117,11 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>41</v>
+      <c r="A43" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B43" t="s">
+        <v>881</v>
       </c>
       <c r="D43" t="s">
         <v>308</v>
@@ -4786,8 +5137,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>42</v>
+      <c r="A44" t="s">
+        <v>811</v>
       </c>
       <c r="B44" t="s">
         <v>312</v>
@@ -4827,8 +5178,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>812</v>
       </c>
       <c r="B45" t="s">
         <v>320</v>
@@ -4883,8 +5234,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>813</v>
       </c>
       <c r="B46" t="s">
         <v>327</v>
@@ -4939,8 +5290,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>45</v>
+      <c r="A47" t="s">
+        <v>814</v>
       </c>
       <c r="B47" t="s">
         <v>333</v>
@@ -4995,8 +5346,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>815</v>
       </c>
       <c r="B48" t="s">
         <v>339</v>
@@ -5036,8 +5387,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>816</v>
       </c>
       <c r="B49" t="s">
         <v>347</v>
@@ -5077,8 +5428,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>48</v>
+      <c r="A50" t="s">
+        <v>817</v>
       </c>
       <c r="B50" t="s">
         <v>353</v>
@@ -5133,8 +5484,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>49</v>
+      <c r="A51" s="7" t="s">
+        <v>818</v>
       </c>
       <c r="B51" t="s">
         <v>360</v>
@@ -5174,8 +5525,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
+      <c r="A52" t="s">
+        <v>819</v>
       </c>
       <c r="B52" t="s">
         <v>365</v>
@@ -5218,8 +5569,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>51</v>
+      <c r="A53" t="s">
+        <v>820</v>
       </c>
       <c r="B53" t="s">
         <v>370</v>
@@ -5274,8 +5625,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>52</v>
+      <c r="A54" t="s">
+        <v>821</v>
       </c>
       <c r="B54" t="s">
         <v>377</v>
@@ -5330,8 +5681,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>53</v>
+      <c r="A55" t="s">
+        <v>822</v>
       </c>
       <c r="B55" t="s">
         <v>385</v>
@@ -5386,8 +5737,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>54</v>
+      <c r="A56" t="s">
+        <v>823</v>
       </c>
       <c r="B56" t="s">
         <v>394</v>
@@ -5427,8 +5778,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>55</v>
+      <c r="A57" s="7" t="s">
+        <v>824</v>
       </c>
       <c r="B57" t="s">
         <v>400</v>
@@ -5471,8 +5822,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>56</v>
+      <c r="A58" t="s">
+        <v>825</v>
       </c>
       <c r="B58" t="s">
         <v>408</v>
@@ -5515,8 +5866,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>57</v>
+      <c r="A59" t="s">
+        <v>826</v>
       </c>
       <c r="B59" t="s">
         <v>414</v>
@@ -5571,8 +5922,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>58</v>
+      <c r="A60" t="s">
+        <v>827</v>
       </c>
       <c r="B60" t="s">
         <v>422</v>
@@ -5612,8 +5963,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>59</v>
+      <c r="A61" s="7" t="s">
+        <v>828</v>
       </c>
       <c r="B61" t="s">
         <v>430</v>
@@ -5656,8 +6007,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>60</v>
+      <c r="A62" s="7" t="s">
+        <v>829</v>
       </c>
       <c r="B62" t="s">
         <v>438</v>
@@ -5712,8 +6063,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>61</v>
+      <c r="A63" s="7" t="s">
+        <v>830</v>
       </c>
       <c r="B63" t="s">
         <v>447</v>
@@ -5768,8 +6119,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>62</v>
+      <c r="A64" t="s">
+        <v>831</v>
       </c>
       <c r="B64" t="s">
         <v>452</v>
@@ -5824,8 +6175,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>63</v>
+      <c r="A65" s="7" t="s">
+        <v>832</v>
       </c>
       <c r="B65" t="s">
         <v>458</v>
@@ -5868,8 +6219,8 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>64</v>
+      <c r="A66" t="s">
+        <v>833</v>
       </c>
       <c r="B66" t="s">
         <v>464</v>
@@ -5909,8 +6260,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>65</v>
+      <c r="A67" s="7" t="s">
+        <v>834</v>
       </c>
       <c r="B67" t="s">
         <v>471</v>
@@ -5965,8 +6316,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>66</v>
+      <c r="A68" t="s">
+        <v>835</v>
       </c>
       <c r="B68" t="s">
         <v>479</v>
@@ -6006,8 +6357,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>67</v>
+      <c r="A69" t="s">
+        <v>836</v>
       </c>
       <c r="B69" t="s">
         <v>485</v>
@@ -6062,8 +6413,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>68</v>
+      <c r="A70" t="s">
+        <v>837</v>
       </c>
       <c r="B70" t="s">
         <v>493</v>
@@ -6103,8 +6454,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>69</v>
+      <c r="A71" s="7" t="s">
+        <v>838</v>
       </c>
       <c r="B71" t="s">
         <v>501</v>
@@ -6147,8 +6498,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>70</v>
+      <c r="A72" t="s">
+        <v>839</v>
       </c>
       <c r="B72" t="s">
         <v>509</v>
@@ -6203,8 +6554,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>71</v>
+      <c r="A73" s="7" t="s">
+        <v>840</v>
       </c>
       <c r="B73" t="s">
         <v>516</v>
@@ -6244,8 +6595,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>72</v>
+      <c r="A74" t="s">
+        <v>841</v>
       </c>
       <c r="B74" t="s">
         <v>524</v>
@@ -6300,8 +6651,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>73</v>
+      <c r="A75" t="s">
+        <v>842</v>
       </c>
       <c r="B75" t="s">
         <v>530</v>
@@ -6341,8 +6692,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>74</v>
+      <c r="A76" s="7" t="s">
+        <v>843</v>
       </c>
       <c r="B76" t="s">
         <v>537</v>
@@ -6385,8 +6736,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>75</v>
+      <c r="A77" t="s">
+        <v>844</v>
       </c>
       <c r="B77" t="s">
         <v>545</v>
@@ -6426,8 +6777,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>76</v>
+      <c r="A78" s="7" t="s">
+        <v>845</v>
       </c>
       <c r="B78" t="s">
         <v>551</v>
@@ -6470,8 +6821,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>77</v>
+      <c r="A79" s="7" t="s">
+        <v>846</v>
       </c>
       <c r="B79" t="s">
         <v>557</v>
@@ -6526,8 +6877,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>78</v>
+      <c r="A80" t="s">
+        <v>847</v>
       </c>
       <c r="B80" t="s">
         <v>564</v>
@@ -6567,8 +6918,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>79</v>
+      <c r="A81" t="s">
+        <v>848</v>
       </c>
       <c r="B81" t="s">
         <v>571</v>
@@ -6608,8 +6959,8 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>80</v>
+      <c r="A82" s="7" t="s">
+        <v>849</v>
       </c>
       <c r="B82" t="s">
         <v>577</v>
@@ -6652,8 +7003,8 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>81</v>
+      <c r="A83" t="s">
+        <v>850</v>
       </c>
       <c r="B83" t="s">
         <v>583</v>
@@ -6693,8 +7044,8 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>82</v>
+      <c r="A84" t="s">
+        <v>851</v>
       </c>
       <c r="B84" t="s">
         <v>591</v>
@@ -6734,8 +7085,8 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>83</v>
+      <c r="A85" s="7" t="s">
+        <v>852</v>
       </c>
       <c r="B85" t="s">
         <v>596</v>
@@ -6790,8 +7141,8 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>84</v>
+      <c r="A86" t="s">
+        <v>853</v>
       </c>
       <c r="B86" t="s">
         <v>601</v>
@@ -6831,8 +7182,8 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>85</v>
+      <c r="A87" s="7" t="s">
+        <v>854</v>
       </c>
       <c r="B87" t="s">
         <v>607</v>
@@ -6872,8 +7223,8 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>86</v>
+      <c r="A88" t="s">
+        <v>855</v>
       </c>
       <c r="B88" t="s">
         <v>612</v>
@@ -6913,8 +7264,8 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>87</v>
+      <c r="A89" t="s">
+        <v>856</v>
       </c>
       <c r="B89" t="s">
         <v>618</v>
@@ -6954,8 +7305,8 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>88</v>
+      <c r="A90" t="s">
+        <v>857</v>
       </c>
       <c r="B90" t="s">
         <v>625</v>
@@ -6995,8 +7346,8 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>89</v>
+      <c r="A91" t="s">
+        <v>858</v>
       </c>
       <c r="B91" t="s">
         <v>632</v>
@@ -7036,8 +7387,8 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
+      <c r="A92" t="s">
+        <v>859</v>
       </c>
       <c r="B92" t="s">
         <v>641</v>
@@ -7080,8 +7431,8 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
+      <c r="A93" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="B93" t="s">
         <v>648</v>
@@ -7124,8 +7475,8 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
+      <c r="A94" s="7" t="s">
+        <v>861</v>
       </c>
       <c r="B94" t="s">
         <v>655</v>
@@ -7168,8 +7519,8 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
+      <c r="A95" s="7" t="s">
+        <v>862</v>
       </c>
       <c r="B95" t="s">
         <v>661</v>
@@ -7209,8 +7560,8 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
+      <c r="A96" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="B96" t="s">
         <v>670</v>
@@ -7250,8 +7601,8 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
+      <c r="A97" t="s">
+        <v>864</v>
       </c>
       <c r="B97" t="s">
         <v>677</v>
@@ -7291,8 +7642,8 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
+      <c r="A98" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="B98" t="s">
         <v>685</v>
@@ -7335,8 +7686,8 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
+      <c r="A99" s="7" t="s">
+        <v>866</v>
       </c>
       <c r="B99" t="s">
         <v>691</v>
@@ -7376,8 +7727,8 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
+      <c r="A100" t="s">
+        <v>867</v>
       </c>
       <c r="B100" t="s">
         <v>698</v>
@@ -7417,8 +7768,8 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
+      <c r="A101" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="D101" t="s">
         <v>705</v>
@@ -7434,8 +7785,8 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>100</v>
+      <c r="A102" t="s">
+        <v>869</v>
       </c>
       <c r="B102" t="s">
         <v>706</v>
@@ -7478,8 +7829,8 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>101</v>
+      <c r="A103" t="s">
+        <v>870</v>
       </c>
       <c r="B103" t="s">
         <v>711</v>
@@ -7534,8 +7885,8 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>102</v>
+      <c r="A104" s="7" t="s">
+        <v>871</v>
       </c>
       <c r="B104" t="s">
         <v>716</v>
@@ -7575,8 +7926,8 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>103</v>
+      <c r="A105" s="7" t="s">
+        <v>872</v>
       </c>
       <c r="B105" t="s">
         <v>722</v>
@@ -7619,8 +7970,8 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>104</v>
+      <c r="A106" t="s">
+        <v>873</v>
       </c>
       <c r="B106" t="s">
         <v>730</v>
@@ -7660,8 +8011,8 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>105</v>
+      <c r="A107" t="s">
+        <v>874</v>
       </c>
       <c r="B107" t="s">
         <v>737</v>
@@ -7701,8 +8052,8 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>106</v>
+      <c r="A108" s="7" t="s">
+        <v>875</v>
       </c>
       <c r="B108" t="s">
         <v>745</v>
@@ -7742,8 +8093,8 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>107</v>
+      <c r="A109" t="s">
+        <v>876</v>
       </c>
       <c r="B109" t="s">
         <v>751</v>
@@ -7783,8 +8134,8 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>108</v>
+      <c r="A110" t="s">
+        <v>877</v>
       </c>
       <c r="B110" t="s">
         <v>758</v>
@@ -7824,8 +8175,8 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>109</v>
+      <c r="A111" t="s">
+        <v>878</v>
       </c>
       <c r="B111" t="s">
         <v>764</v>
@@ -7871,7 +8222,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E111"/>
+  <autoFilter ref="A1:K111"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
